--- a/NACA2412.xlsx
+++ b/NACA2412.xlsx
@@ -1030,7 +1030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,6 +1316,34 @@
       </c>
       <c r="D20" t="n">
         <v>0.13056</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.2624</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.15987</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.15695</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.2077</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.18794</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -1629,6 +1657,48 @@
       </c>
       <c r="D21" t="n">
         <v>0.12175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.3054</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.15205</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.14908</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.2611</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.17829</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.17573</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.2185</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.20671</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.20451</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,6 +2012,62 @@
       </c>
       <c r="D21" t="n">
         <v>0.11114</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.3524</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.14342</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1405</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.2893</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1726</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.17004</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.2473</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.19947</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.19719</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.2068</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.22952</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.22762</v>
       </c>
     </row>
   </sheetData>
@@ -1955,7 +2081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2255,6 +2381,76 @@
       </c>
       <c r="D21" t="n">
         <v>0.10559</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.3831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.13779</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.13484</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.3143</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.16741</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.16488</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.19603</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.19386</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.2293</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.22309</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.22118</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.2094</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.24831</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.24659</v>
       </c>
     </row>
   </sheetData>
@@ -2268,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2568,6 +2764,76 @@
       </c>
       <c r="D21" t="n">
         <v>0.09395000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.4449</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.12639</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.12336</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.15895</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.15639</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.2827</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.19142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.18925</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.2386</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2206</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.21867</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.2175</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.24435</v>
       </c>
     </row>
   </sheetData>
@@ -4445,7 +4711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4745,6 +5011,76 @@
       </c>
       <c r="D21" t="n">
         <v>0.2268</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8501</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.26985</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.24159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8877</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.28432</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.25655</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9248</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.29895</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.27162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9611</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.31374</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.2869</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9964</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.32866</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.30225</v>
       </c>
     </row>
   </sheetData>
